--- a/_analysis/dst/fishery-functional-relationship.xlsx
+++ b/_analysis/dst/fishery-functional-relationship.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Documents\projects\Bluff-Lake-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Documents\projects\Bluff-Lake-Project\_analysis\dst\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F454B4F-EBD9-4C8F-801D-226B36691F5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8844"/>
+    <workbookView xWindow="20052" yWindow="-108" windowWidth="20376" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1402"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +625,7 @@
         <v>0.53816046966731901</v>
       </c>
       <c r="E13">
-        <v>4.3052837573385516E-2</v>
+        <v>4.3052837573385502E-2</v>
       </c>
       <c r="F13">
         <v>0.59197651663405082</v>
